--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Xaltius_Trainings\6_Months_DSCC_Program\2. Data Analysis using Microsoft Excel\Lookup Functions\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1FA944-457C-401E-9502-7AB392C88A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DF9D8C-02CC-41AC-8A58-03F05E57F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -31,17 +31,6 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId15" roundtripDataSignature="AMtx7mjV3R7Cawx4Z8pJS8r/Z1jxLkJLkw=="/>
     </ext>
@@ -383,7 +372,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,6 +413,24 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E2F3"/>
         <bgColor rgb="FFD9E2F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD8D8D8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -573,7 +580,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,6 +629,18 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -839,8 +858,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -850,34 +869,34 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="32" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -885,7 +904,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="32" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -893,21 +912,21 @@
         <v>Kranti</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="2"/>
@@ -945,13 +964,13 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
+      <c r="F7" s="34"/>
+      <c r="G7" s="34"/>
+      <c r="H7" s="34"/>
+      <c r="I7" s="35"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -963,11 +982,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="38"/>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -979,11 +998,11 @@
       <c r="C9" s="6">
         <v>9000</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="38"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -995,11 +1014,11 @@
       <c r="C10" s="6">
         <v>10000</v>
       </c>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="27"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="41"/>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -5506,8 +5525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13639,26 +13658,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1670c0fe-6d31-4556-b86f-9e87b6880aec" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9454a14-a1be-4dae-96dd-930f17aa1325">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -13901,10 +13900,41 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1670c0fe-6d31-4556-b86f-9e87b6880aec" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9454a14-a1be-4dae-96dd-930f17aa1325">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B087AFD-AD9A-4519-A6E7-415BDCCD1406}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05FC0A17-52AA-4B42-ABB8-3C6BCD322DA3}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
+    <ds:schemaRef ds:uri="1670c0fe-6d31-4556-b86f-9e87b6880aec"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -13921,20 +13951,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05FC0A17-52AA-4B42-ABB8-3C6BCD322DA3}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B087AFD-AD9A-4519-A6E7-415BDCCD1406}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
-    <ds:schemaRef ds:uri="1670c0fe-6d31-4556-b86f-9e87b6880aec"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2DF9D8C-02CC-41AC-8A58-03F05E57F8C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C548A5A-BF31-497E-9AD0-EC23340DFCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -430,6 +430,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -580,7 +586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -641,6 +647,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -858,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4205,8 +4212,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView zoomScale="123" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4218,35 +4225,35 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="32" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="32" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -4266,7 +4273,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="32" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -4274,7 +4281,7 @@
         <v>Adam</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4">
@@ -4282,20 +4289,17 @@
         <v>11000</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4">
-        <f>VLOOKUP(H2,A6:C13,3,FALSE)</f>
-        <v>17000</v>
-      </c>
+      <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="32" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="32" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="4"/>
@@ -4475,7 +4479,7 @@
       <c r="C11" s="6">
         <v>11000</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="42"/>
       <c r="G11" s="6">
         <v>11500</v>
       </c>
@@ -4498,7 +4502,7 @@
       <c r="C12" s="6">
         <v>12000</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="42"/>
       <c r="G12" s="6">
         <v>16500</v>
       </c>
@@ -4516,7 +4520,7 @@
       <c r="C13" s="6">
         <v>17000</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="42"/>
       <c r="K13" s="8" t="s">
         <v>26</v>
       </c>

--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C548A5A-BF31-497E-9AD0-EC23340DFCC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6826D1-ABBB-415E-9712-F84CF99F871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -603,7 +603,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -648,6 +647,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,34 +876,34 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -911,7 +911,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -919,21 +919,21 @@
         <v>Kranti</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="2"/>
@@ -971,13 +971,13 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="35"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -989,11 +989,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-      <c r="I8" s="38"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -1005,11 +1005,11 @@
       <c r="C9" s="6">
         <v>9000</v>
       </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="38"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="37"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -1021,11 +1021,11 @@
       <c r="C10" s="6">
         <v>10000</v>
       </c>
-      <c r="E10" s="39"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="41"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -2070,13 +2070,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3147,13 +3147,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4212,7 +4212,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="123" workbookViewId="0">
+    <sheetView zoomScale="123" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -4225,35 +4225,35 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="32" t="s">
+      <c r="G2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="32" t="s">
+      <c r="J2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="32" t="s">
+      <c r="M2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -4273,7 +4273,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="32" t="s">
+      <c r="A3" s="31" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -4281,7 +4281,7 @@
         <v>Adam</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4">
@@ -4289,17 +4289,17 @@
         <v>11000</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="4"/>
@@ -4357,13 +4357,13 @@
       <c r="H6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="19" t="s">
+      <c r="J6" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="20"/>
-      <c r="L6" s="20"/>
-      <c r="M6" s="20"/>
-      <c r="N6" s="21"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19"/>
+      <c r="M6" s="19"/>
+      <c r="N6" s="20"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -4385,11 +4385,11 @@
       <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -4411,11 +4411,11 @@
       <c r="H8" s="6">
         <v>8</v>
       </c>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
+      <c r="J8" s="21"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="23"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -4437,11 +4437,11 @@
       <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -4463,11 +4463,11 @@
       <c r="H10" s="6">
         <v>12</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -4479,18 +4479,18 @@
       <c r="C11" s="6">
         <v>11000</v>
       </c>
-      <c r="D11" s="42"/>
+      <c r="D11" s="41"/>
       <c r="G11" s="6">
         <v>11500</v>
       </c>
       <c r="H11" s="6">
         <v>14</v>
       </c>
-      <c r="J11" s="25"/>
-      <c r="K11" s="26"/>
-      <c r="L11" s="26"/>
-      <c r="M11" s="26"/>
-      <c r="N11" s="27"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -4502,7 +4502,7 @@
       <c r="C12" s="6">
         <v>12000</v>
       </c>
-      <c r="D12" s="42"/>
+      <c r="D12" s="41"/>
       <c r="G12" s="6">
         <v>16500</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="C13" s="6">
         <v>17000</v>
       </c>
-      <c r="D13" s="42"/>
+      <c r="D13" s="41"/>
       <c r="K13" s="8" t="s">
         <v>26</v>
       </c>
@@ -5529,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5539,113 +5539,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="29"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="31"/>
       <c r="H2" s="6"/>
-      <c r="J2" s="10"/>
+      <c r="J2" s="42"/>
       <c r="K2" s="6"/>
-      <c r="M2" s="10"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="str">
         <f>HLOOKUP(B2,A8:F10,2,FALSE)</f>
         <v>George</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E2,B9:G10,2,FALSE)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="31"/>
       <c r="H3" s="6"/>
-      <c r="J3" s="10"/>
+      <c r="J3" s="42"/>
       <c r="K3" s="6"/>
-      <c r="M3" s="10"/>
+      <c r="M3" s="42"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="29"/>
-      <c r="L4" s="29"/>
-      <c r="M4" s="29"/>
-      <c r="N4" s="29"/>
-      <c r="O4" s="29"/>
-      <c r="P4" s="30"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="29"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="10">
         <v>6000</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>7000</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="4">
         <v>8000</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="4">
         <v>10000</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="31" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="4">
@@ -5653,26 +5653,26 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4">
         <f>HLOOKUP(B5,B12:G13,2,TRUE)</f>
         <v>4</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="31" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="4">
@@ -5682,30 +5682,30 @@
     </row>
     <row r="7" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
@@ -5726,16 +5726,16 @@
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="J9" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="21"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="6">
@@ -5756,21 +5756,21 @@
       <c r="G10" s="6">
         <v>17000</v>
       </c>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-      <c r="N10" s="24"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-      <c r="N11" s="24"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>7</v>
       </c>
       <c r="B12" s="6">
@@ -5791,14 +5791,14 @@
       <c r="G12" s="6">
         <v>15500</v>
       </c>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-      <c r="N12" s="24"/>
+      <c r="J12" s="35"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36"/>
+      <c r="M12" s="36"/>
+      <c r="N12" s="37"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="6">
@@ -5819,11 +5819,11 @@
       <c r="G13" s="6">
         <v>16</v>
       </c>
-      <c r="J13" s="25"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="27"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="40"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K14" s="8" t="s">
@@ -6847,16 +6847,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="30"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="29"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -6900,51 +6900,51 @@
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="13">
         <v>6</v>
       </c>
-      <c r="C5" s="14"/>
+      <c r="C5" s="13"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
       <c r="H5" s="6"/>
       <c r="I5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="6"/>
       <c r="I6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
     </row>
@@ -8123,13 +8123,13 @@
       <c r="C6" s="6">
         <v>6000</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="21"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -8141,11 +8141,11 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -8157,11 +8157,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="F8" s="25"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="27"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -9245,13 +9245,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -9260,13 +9260,13 @@
       <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="21"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -9285,11 +9285,11 @@
       <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="24"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -9308,11 +9308,11 @@
       <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="24"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -9331,11 +9331,11 @@
       <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="26"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="27"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -9357,19 +9357,19 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="11" t="s">
         <v>40</v>
       </c>
     </row>
@@ -10471,13 +10471,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>8</v>
       </c>
     </row>
@@ -10486,10 +10486,10 @@
         <f>AREAS(C2:C4)</f>
         <v>1</v>
       </c>
-      <c r="C2" s="16" t="s">
+      <c r="C2" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="15" t="s">
         <v>71</v>
       </c>
     </row>
@@ -10498,10 +10498,10 @@
         <f>AREAS((C1:C4,D1:D4))</f>
         <v>2</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="15" t="s">
         <v>73</v>
       </c>
     </row>
@@ -10510,10 +10510,10 @@
         <f>AREAS((C1:C4,D1:D5))</f>
         <v>2</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="16" t="s">
+      <c r="D4" s="15" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11537,13 +11537,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12615,13 +12615,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6826D1-ABBB-415E-9712-F84CF99F871F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E01567A-1094-4446-B196-748AC8B06C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -5529,8 +5529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8033,8 +8033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8046,25 +8046,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="31" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="31" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
         <v>6500</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="31" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="31" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -8072,34 +8072,25 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="31" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2">
         <f>MATCH(B2,A6:A13,0)</f>
         <v>7</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4" t="e">
-        <f>MATCH(E2,C6:C13,-1)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G3" s="1" t="s">
+      <c r="E3" s="4"/>
+      <c r="G3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="4">
-        <f>MATCH(H2,B6:B13,0)</f>
-        <v>2</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="4"/>
+      <c r="J3" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="4">
-        <f>MATCH(K2,A6:A13,0)</f>
-        <v>5</v>
-      </c>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8123,13 +8114,13 @@
       <c r="C6" s="6">
         <v>6000</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="34"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -8141,11 +8132,11 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -8157,11 +8148,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">

--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E01567A-1094-4446-B196-748AC8B06C3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DB072-9D1B-4CAF-ACEF-2EAD0B9DDC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
   <si>
     <t>Emp ID</t>
   </si>
@@ -330,6 +330,9 @@
   <si>
     <t>INDIRECT(ADDRESS(5,2))</t>
   </si>
+  <si>
+    <t>gfdgfdg</t>
+  </si>
 </sst>
 </file>
 
@@ -615,6 +618,20 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -634,20 +651,6 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -876,34 +879,34 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="18" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -911,7 +914,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="18" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -919,21 +922,21 @@
         <v>Kranti</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="2"/>
@@ -971,13 +974,13 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="34"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="23"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -989,11 +992,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="37"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="26"/>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -1005,11 +1008,11 @@
       <c r="C9" s="6">
         <v>9000</v>
       </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="37"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="26"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -1021,11 +1024,11 @@
       <c r="C10" s="6">
         <v>10000</v>
       </c>
-      <c r="E10" s="38"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="40"/>
+      <c r="E10" s="27"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="29"/>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -4225,35 +4228,35 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="31" t="s">
+      <c r="M2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -4273,7 +4276,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="18" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -4281,7 +4284,7 @@
         <v>Adam</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4">
@@ -4289,17 +4292,17 @@
         <v>11000</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="18" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="4"/>
@@ -4357,13 +4360,13 @@
       <c r="H6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="20"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="32"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -4385,11 +4388,11 @@
       <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="21"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="34"/>
+      <c r="L7" s="34"/>
+      <c r="M7" s="34"/>
+      <c r="N7" s="35"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -4411,11 +4414,11 @@
       <c r="H8" s="6">
         <v>8</v>
       </c>
-      <c r="J8" s="21"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -4437,11 +4440,11 @@
       <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="J9" s="21"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="34"/>
+      <c r="L9" s="34"/>
+      <c r="M9" s="34"/>
+      <c r="N9" s="35"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -4463,11 +4466,11 @@
       <c r="H10" s="6">
         <v>12</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="34"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="34"/>
+      <c r="N10" s="35"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -4479,18 +4482,18 @@
       <c r="C11" s="6">
         <v>11000</v>
       </c>
-      <c r="D11" s="41"/>
+      <c r="D11" s="19"/>
       <c r="G11" s="6">
         <v>11500</v>
       </c>
       <c r="H11" s="6">
         <v>14</v>
       </c>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="38"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -4502,7 +4505,7 @@
       <c r="C12" s="6">
         <v>12000</v>
       </c>
-      <c r="D12" s="41"/>
+      <c r="D12" s="19"/>
       <c r="G12" s="6">
         <v>16500</v>
       </c>
@@ -4520,7 +4523,7 @@
       <c r="C13" s="6">
         <v>17000</v>
       </c>
-      <c r="D13" s="41"/>
+      <c r="D13" s="19"/>
       <c r="K13" s="8" t="s">
         <v>26</v>
       </c>
@@ -5539,113 +5542,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
+      <c r="A1" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
+      <c r="P1" s="41"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="31"/>
+      <c r="G2" s="18"/>
       <c r="H2" s="6"/>
-      <c r="J2" s="42"/>
+      <c r="J2" s="20"/>
       <c r="K2" s="6"/>
-      <c r="M2" s="42"/>
+      <c r="M2" s="20"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="str">
         <f>HLOOKUP(B2,A8:F10,2,FALSE)</f>
         <v>George</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E2,B9:G10,2,FALSE)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="31"/>
+      <c r="G3" s="18"/>
       <c r="H3" s="6"/>
-      <c r="J3" s="42"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="6"/>
-      <c r="M3" s="42"/>
+      <c r="M3" s="20"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="28"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="28"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="29"/>
+      <c r="B4" s="40"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="40"/>
+      <c r="I4" s="40"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="41"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="10">
         <v>6000</v>
       </c>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>7000</v>
       </c>
-      <c r="G5" s="31" t="s">
+      <c r="G5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="4">
         <v>8000</v>
       </c>
-      <c r="J5" s="31" t="s">
+      <c r="J5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="4">
         <v>10000</v>
       </c>
-      <c r="M5" s="31" t="s">
+      <c r="M5" s="18" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="4">
@@ -5653,26 +5656,26 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4">
         <f>HLOOKUP(B5,B12:G13,2,TRUE)</f>
         <v>4</v>
       </c>
-      <c r="D6" s="31" t="s">
+      <c r="D6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="31" t="s">
+      <c r="G6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="J6" s="31" t="s">
+      <c r="J6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="M6" s="31" t="s">
+      <c r="M6" s="18" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="4">
@@ -5726,13 +5729,13 @@
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="32" t="s">
+      <c r="J9" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="34"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="23"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
@@ -5756,18 +5759,18 @@
       <c r="G10" s="6">
         <v>17000</v>
       </c>
-      <c r="J10" s="35"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36"/>
-      <c r="M10" s="36"/>
-      <c r="N10" s="37"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="26"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="26"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
@@ -5791,11 +5794,11 @@
       <c r="G12" s="6">
         <v>15500</v>
       </c>
-      <c r="J12" s="35"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36"/>
-      <c r="M12" s="36"/>
-      <c r="N12" s="37"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="26"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -5819,11 +5822,11 @@
       <c r="G13" s="6">
         <v>16</v>
       </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39"/>
-      <c r="L13" s="39"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="40"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="28"/>
+      <c r="N13" s="29"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K14" s="8" t="s">
@@ -6847,16 +6850,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="29"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="41"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -8033,7 +8036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -8046,25 +8049,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="18" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="D2" s="18" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
         <v>6500</v>
       </c>
-      <c r="G2" s="31" t="s">
+      <c r="G2" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="18" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -8072,22 +8075,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2">
         <f>MATCH(B2,A6:A13,0)</f>
         <v>7</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="18" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="4"/>
@@ -8114,13 +8117,13 @@
       <c r="C6" s="6">
         <v>6000</v>
       </c>
-      <c r="F6" s="32" t="s">
+      <c r="F6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="34"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -8132,11 +8135,11 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="37"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -8148,11 +8151,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="40"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="29"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -9220,8 +9223,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9251,13 +9254,13 @@
       <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="32"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -9276,11 +9279,11 @@
       <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="35"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -9299,11 +9302,11 @@
       <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="35"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -9322,11 +9325,11 @@
       <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="38"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -9450,7 +9453,11 @@
         <v>GREEN</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+    </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13653,6 +13660,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="1670c0fe-6d31-4556-b86f-9e87b6880aec" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9454a14-a1be-4dae-96dd-930f17aa1325">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -13895,17 +13913,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="1670c0fe-6d31-4556-b86f-9e87b6880aec" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9454a14-a1be-4dae-96dd-930f17aa1325">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -13916,6 +13923,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0578504-35B2-407F-ABE4-20D094B27F55}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="1670c0fe-6d31-4556-b86f-9e87b6880aec"/>
+    <ds:schemaRef ds:uri="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05FC0A17-52AA-4B42-ABB8-3C6BCD322DA3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13934,17 +13952,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0578504-35B2-407F-ABE4-20D094B27F55}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="1670c0fe-6d31-4556-b86f-9e87b6880aec"/>
-    <ds:schemaRef ds:uri="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B087AFD-AD9A-4519-A6E7-415BDCCD1406}">
   <ds:schemaRefs>

--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F5DB072-9D1B-4CAF-ACEF-2EAD0B9DDC9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B04F7-6FFB-4D8A-BE29-F4F28DBF875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="91">
   <si>
     <t>Emp ID</t>
   </si>
@@ -330,9 +330,6 @@
   <si>
     <t>INDIRECT(ADDRESS(5,2))</t>
   </si>
-  <si>
-    <t>gfdgfdg</t>
-  </si>
 </sst>
 </file>
 
@@ -375,7 +372,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -440,6 +437,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FF8EAADB"/>
       </patternFill>
     </fill>
   </fills>
@@ -589,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -651,6 +654,7 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9224,7 +9228,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9239,13 +9243,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="43" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -9254,13 +9258,13 @@
       <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -9269,21 +9273,18 @@
       <c r="B3" s="6">
         <v>4</v>
       </c>
-      <c r="C3" s="6" t="str">
-        <f>CHOOSE((B3&gt;=0)+(B3&gt;=2)+(B3&gt;=4)+(B4&gt;=6),"Poor","Average","Good","Excellent")</f>
-        <v>Good</v>
-      </c>
+      <c r="C3" s="6"/>
       <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="35"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="26"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -9292,21 +9293,18 @@
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="6" t="str">
-        <f>CHOOSE((B4&gt;=0)+(B4&gt;=2)+(B4&gt;=6)+(B4&gt;=9),"Poor","Average","Good","Excelletnt")</f>
-        <v>Poor</v>
-      </c>
+      <c r="C4" s="6"/>
       <c r="E4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="33"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="35"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="26"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -9315,21 +9313,18 @@
       <c r="B5" s="6">
         <v>7</v>
       </c>
-      <c r="C5" s="6" t="str">
-        <f t="shared" ref="C5:C6" si="0">CHOOSE((B5&gt;=0)+(B5&gt;=2)+(B5&gt;=6)+(B5&gt;=9),"Poor","Average","Good","Excelletnt")</f>
-        <v>Good</v>
-      </c>
+      <c r="C5" s="6"/>
       <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="36"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="38"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -9338,10 +9333,7 @@
       <c r="B6" s="6">
         <v>9</v>
       </c>
-      <c r="C6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>Excelletnt</v>
-      </c>
+      <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="8" t="s">
@@ -9351,13 +9343,13 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="43" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="43" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -9388,10 +9380,7 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" ref="C10:C14" si="1">CHOOSE(B10,"RED","GREEN","BLUE")</f>
-        <v>RED</v>
-      </c>
+      <c r="C10" s="6"/>
       <c r="E10" s="6">
         <v>2</v>
       </c>
@@ -9406,10 +9395,7 @@
       <c r="B11" s="6">
         <v>3</v>
       </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>BLUE</v>
-      </c>
+      <c r="C11" s="6"/>
       <c r="E11" s="6">
         <v>3</v>
       </c>
@@ -9424,10 +9410,7 @@
       <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>BLUE</v>
-      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -9436,10 +9419,7 @@
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>RED</v>
-      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
@@ -9448,16 +9428,9 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="6" t="str">
-        <f t="shared" si="1"/>
-        <v>GREEN</v>
-      </c>
+      <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G15" t="s">
-        <v>91</v>
-      </c>
-    </row>
+    <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="17" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="18" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13671,6 +13644,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -13913,15 +13895,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0578504-35B2-407F-ABE4-20D094B27F55}">
   <ds:schemaRefs>
@@ -13934,6 +13907,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B087AFD-AD9A-4519-A6E7-415BDCCD1406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05FC0A17-52AA-4B42-ABB8-3C6BCD322DA3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13950,12 +13931,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B087AFD-AD9A-4519-A6E7-415BDCCD1406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2B04F7-6FFB-4D8A-BE29-F4F28DBF875A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F4DF5F-F2ED-4FC1-98D9-F89409CBC420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -443,6 +443,12 @@
       <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor rgb="FF8EAADB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFD9E2F3"/>
       </patternFill>
     </fill>
   </fills>
@@ -613,7 +619,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -655,6 +660,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -883,34 +889,34 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -918,7 +924,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -926,21 +932,21 @@
         <v>Kranti</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="2"/>
@@ -978,13 +984,13 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="23"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -996,11 +1002,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="26"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -1012,11 +1018,11 @@
       <c r="C9" s="6">
         <v>9000</v>
       </c>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -1028,11 +1034,11 @@
       <c r="C10" s="6">
         <v>10000</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="29"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -2077,13 +2083,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3154,13 +3160,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4232,35 +4238,35 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="18" t="s">
+      <c r="M2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -4280,7 +4286,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -4288,7 +4294,7 @@
         <v>Adam</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4">
@@ -4296,17 +4302,17 @@
         <v>11000</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="4"/>
@@ -4364,13 +4370,13 @@
       <c r="H6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="J6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="31"/>
-      <c r="M6" s="31"/>
-      <c r="N6" s="32"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -4392,11 +4398,11 @@
       <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="33"/>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34"/>
-      <c r="M7" s="34"/>
-      <c r="N7" s="35"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="33"/>
+      <c r="N7" s="34"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -4418,11 +4424,11 @@
       <c r="H8" s="6">
         <v>8</v>
       </c>
-      <c r="J8" s="33"/>
-      <c r="K8" s="34"/>
-      <c r="L8" s="34"/>
-      <c r="M8" s="34"/>
-      <c r="N8" s="35"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="33"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="33"/>
+      <c r="N8" s="34"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -4444,11 +4450,11 @@
       <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="J9" s="33"/>
-      <c r="K9" s="34"/>
-      <c r="L9" s="34"/>
-      <c r="M9" s="34"/>
-      <c r="N9" s="35"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="33"/>
+      <c r="N9" s="34"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -4470,11 +4476,11 @@
       <c r="H10" s="6">
         <v>12</v>
       </c>
-      <c r="J10" s="33"/>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34"/>
-      <c r="N10" s="35"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="34"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -4486,18 +4492,18 @@
       <c r="C11" s="6">
         <v>11000</v>
       </c>
-      <c r="D11" s="19"/>
+      <c r="D11" s="18"/>
       <c r="G11" s="6">
         <v>11500</v>
       </c>
       <c r="H11" s="6">
         <v>14</v>
       </c>
-      <c r="J11" s="36"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="38"/>
+      <c r="J11" s="35"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="37"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -4509,7 +4515,7 @@
       <c r="C12" s="6">
         <v>12000</v>
       </c>
-      <c r="D12" s="19"/>
+      <c r="D12" s="18"/>
       <c r="G12" s="6">
         <v>16500</v>
       </c>
@@ -4527,7 +4533,7 @@
       <c r="C13" s="6">
         <v>17000</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="18"/>
       <c r="K13" s="8" t="s">
         <v>26</v>
       </c>
@@ -5546,113 +5552,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
-      <c r="P1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
+      <c r="O1" s="39"/>
+      <c r="P1" s="40"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="6"/>
-      <c r="J2" s="20"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="6"/>
-      <c r="M2" s="20"/>
+      <c r="M2" s="19"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="str">
         <f>HLOOKUP(B2,A8:F10,2,FALSE)</f>
         <v>George</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E2,B9:G10,2,FALSE)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="18"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="6"/>
-      <c r="J3" s="20"/>
+      <c r="J3" s="19"/>
       <c r="K3" s="6"/>
-      <c r="M3" s="20"/>
+      <c r="M3" s="19"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40"/>
-      <c r="M4" s="40"/>
-      <c r="N4" s="40"/>
-      <c r="O4" s="40"/>
-      <c r="P4" s="41"/>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="40"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="10">
         <v>6000</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>7000</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="4">
         <v>8000</v>
       </c>
-      <c r="J5" s="18" t="s">
+      <c r="J5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="4">
         <v>10000</v>
       </c>
-      <c r="M5" s="18" t="s">
+      <c r="M5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="4">
@@ -5660,26 +5666,26 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4">
         <f>HLOOKUP(B5,B12:G13,2,TRUE)</f>
         <v>4</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="4">
@@ -5733,13 +5739,13 @@
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
@@ -5763,18 +5769,18 @@
       <c r="G10" s="6">
         <v>17000</v>
       </c>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="26"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="26"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
@@ -5798,11 +5804,11 @@
       <c r="G12" s="6">
         <v>15500</v>
       </c>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="26"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -5826,11 +5832,11 @@
       <c r="G13" s="6">
         <v>16</v>
       </c>
-      <c r="J13" s="27"/>
-      <c r="K13" s="28"/>
-      <c r="L13" s="28"/>
-      <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="27"/>
+      <c r="M13" s="27"/>
+      <c r="N13" s="28"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K14" s="8" t="s">
@@ -6854,16 +6860,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="41"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -8053,25 +8059,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="17" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
         <v>6500</v>
       </c>
-      <c r="G2" s="18" t="s">
+      <c r="G2" s="17" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="17" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -8079,22 +8085,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2">
         <f>MATCH(B2,A6:A13,0)</f>
         <v>7</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="17" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="4"/>
@@ -8121,13 +8127,13 @@
       <c r="C6" s="6">
         <v>6000</v>
       </c>
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="23"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -8139,11 +8145,11 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -8155,11 +8161,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="29"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="27"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -9227,7 +9233,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:M1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
@@ -9243,13 +9249,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="43" t="s">
+      <c r="A2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="43" t="s">
+      <c r="B2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="42" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -9258,13 +9264,13 @@
       <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="23"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -9280,11 +9286,11 @@
       <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="26"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -9300,11 +9306,11 @@
       <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="26"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -9320,11 +9326,11 @@
       <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
-      <c r="M5" s="29"/>
+      <c r="I5" s="26"/>
+      <c r="J5" s="27"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="27"/>
+      <c r="M5" s="28"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -9343,13 +9349,13 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="42" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -10429,8 +10435,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10442,49 +10448,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <f>AREAS(C2:C4)</f>
-        <v>1</v>
-      </c>
-      <c r="C2" s="15" t="s">
+      <c r="A2" s="6"/>
+      <c r="C2" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6">
-        <f>AREAS((C1:C4,D1:D4))</f>
-        <v>2</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="A3" s="6"/>
+      <c r="C3" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="14" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6">
-        <f>AREAS((C1:C4,D1:D5))</f>
-        <v>2</v>
-      </c>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="6"/>
+      <c r="C4" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>75</v>
       </c>
     </row>
@@ -11508,13 +11505,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="15" t="s">
         <v>41</v>
       </c>
     </row>
@@ -12586,13 +12583,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F4DF5F-F2ED-4FC1-98D9-F89409CBC420}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF4F2D-01D8-4F09-BD95-C022283CBE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -598,7 +598,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -661,6 +661,10 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10435,7 +10439,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -11496,7 +11500,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11505,13 +11509,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="44" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -11522,10 +11526,7 @@
       <c r="B2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="6" t="str">
-        <f>ADDRESS(2,2)</f>
-        <v>$B$2</v>
-      </c>
+      <c r="C2" s="45"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -11534,10 +11535,7 @@
       <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6" t="str">
-        <f>ADDRESS(3,3)</f>
-        <v>$C$3</v>
-      </c>
+      <c r="C3" s="45"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -11546,10 +11544,7 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6" t="str">
-        <f>ADDRESS(4,3)</f>
-        <v>$C$4</v>
-      </c>
+      <c r="C4" s="45"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -11558,7 +11553,7 @@
       <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="45"/>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -11567,7 +11562,7 @@
       <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="45"/>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12573,8 +12568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12583,13 +12578,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="44" t="s">
         <v>88</v>
       </c>
     </row>
@@ -12621,6 +12616,7 @@
         <v>40</v>
       </c>
       <c r="B4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">

--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02AF4F2D-01D8-4F09-BD95-C022283CBE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B99C9A3-E97C-4773-B3BE-F783D5BACFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -372,7 +372,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="14">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -407,12 +407,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor theme="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD9E2F3"/>
-        <bgColor rgb="FFD9E2F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -598,7 +592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,26 +614,20 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -659,12 +647,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -893,34 +884,34 @@
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="N2" s="2" t="s">
@@ -928,7 +919,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -936,21 +927,21 @@
         <v>Kranti</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="2"/>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="N3" s="2"/>
@@ -988,13 +979,13 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="21"/>
-      <c r="I7" s="22"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -1006,11 +997,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="E8" s="23"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="25"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="23"/>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -1022,11 +1013,11 @@
       <c r="C9" s="6">
         <v>9000</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="25"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="23"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -1038,11 +1029,11 @@
       <c r="C10" s="6">
         <v>10000</v>
       </c>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="27"/>
-      <c r="I10" s="28"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="26"/>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -2078,7 +2069,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2087,13 +2078,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="44" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3152,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3164,13 +3155,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="42" t="s">
         <v>41</v>
       </c>
     </row>
@@ -4242,35 +4233,35 @@
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="3"/>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="3"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="3"/>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>14</v>
       </c>
       <c r="L2" s="3"/>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="N2" s="4" t="s">
@@ -4290,7 +4281,7 @@
       <c r="Z2" s="3"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="str">
@@ -4298,7 +4289,7 @@
         <v>Adam</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="4">
@@ -4306,17 +4297,17 @@
         <v>11000</v>
       </c>
       <c r="F3" s="3"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H3" s="4"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="17" t="s">
+      <c r="M3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="N3" s="4"/>
@@ -4374,13 +4365,13 @@
       <c r="H6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="29" t="s">
+      <c r="J6" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="30"/>
-      <c r="L6" s="30"/>
-      <c r="M6" s="30"/>
-      <c r="N6" s="31"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="29"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -4402,11 +4393,11 @@
       <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
-      <c r="L7" s="33"/>
-      <c r="M7" s="33"/>
-      <c r="N7" s="34"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -4428,11 +4419,11 @@
       <c r="H8" s="6">
         <v>8</v>
       </c>
-      <c r="J8" s="32"/>
-      <c r="K8" s="33"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="33"/>
-      <c r="N8" s="34"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -4454,11 +4445,11 @@
       <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
-      <c r="L9" s="33"/>
-      <c r="M9" s="33"/>
-      <c r="N9" s="34"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="32"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -4480,11 +4471,11 @@
       <c r="H10" s="6">
         <v>12</v>
       </c>
-      <c r="J10" s="32"/>
-      <c r="K10" s="33"/>
-      <c r="L10" s="33"/>
-      <c r="M10" s="33"/>
-      <c r="N10" s="34"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="32"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -4496,18 +4487,18 @@
       <c r="C11" s="6">
         <v>11000</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="16"/>
       <c r="G11" s="6">
         <v>11500</v>
       </c>
       <c r="H11" s="6">
         <v>14</v>
       </c>
-      <c r="J11" s="35"/>
-      <c r="K11" s="36"/>
-      <c r="L11" s="36"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="34"/>
+      <c r="L11" s="34"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="35"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -4519,7 +4510,7 @@
       <c r="C12" s="6">
         <v>12000</v>
       </c>
-      <c r="D12" s="18"/>
+      <c r="D12" s="16"/>
       <c r="G12" s="6">
         <v>16500</v>
       </c>
@@ -4537,7 +4528,7 @@
       <c r="C13" s="6">
         <v>17000</v>
       </c>
-      <c r="D13" s="18"/>
+      <c r="D13" s="16"/>
       <c r="K13" s="8" t="s">
         <v>26</v>
       </c>
@@ -5556,113 +5547,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
-      <c r="O1" s="39"/>
-      <c r="P1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="17"/>
+      <c r="G2" s="15"/>
       <c r="H2" s="6"/>
-      <c r="J2" s="19"/>
+      <c r="J2" s="17"/>
       <c r="K2" s="6"/>
-      <c r="M2" s="19"/>
+      <c r="M2" s="17"/>
       <c r="N2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="9" t="str">
         <f>HLOOKUP(B2,A8:F10,2,FALSE)</f>
         <v>George</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E3" s="2">
         <f>HLOOKUP(E2,B9:G10,2,FALSE)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="17"/>
+      <c r="G3" s="15"/>
       <c r="H3" s="6"/>
-      <c r="J3" s="19"/>
+      <c r="J3" s="17"/>
       <c r="K3" s="6"/>
-      <c r="M3" s="19"/>
+      <c r="M3" s="17"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="39"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
-      <c r="I4" s="39"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="40"/>
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
+      <c r="J4" s="37"/>
+      <c r="K4" s="37"/>
+      <c r="L4" s="37"/>
+      <c r="M4" s="37"/>
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="10">
         <v>6000</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="4">
         <v>7000</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="H5" s="4">
         <v>8000</v>
       </c>
-      <c r="J5" s="17" t="s">
+      <c r="J5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="K5" s="4">
         <v>10000</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="15" t="s">
         <v>7</v>
       </c>
       <c r="N5" s="4">
@@ -5670,26 +5661,26 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="17" t="s">
+      <c r="A6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="4">
         <f>HLOOKUP(B5,B12:G13,2,TRUE)</f>
         <v>4</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="4"/>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="H6" s="4"/>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="4"/>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="15" t="s">
         <v>22</v>
       </c>
       <c r="N6" s="4">
@@ -5743,13 +5734,13 @@
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="20" t="s">
+      <c r="J9" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="21"/>
-      <c r="N9" s="22"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
@@ -5773,18 +5764,18 @@
       <c r="G10" s="6">
         <v>17000</v>
       </c>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="23"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="23"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="23"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
@@ -5808,11 +5799,11 @@
       <c r="G12" s="6">
         <v>15500</v>
       </c>
-      <c r="J12" s="23"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="23"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -5836,11 +5827,11 @@
       <c r="G13" s="6">
         <v>16</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="27"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="27"/>
-      <c r="N13" s="28"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="26"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K14" s="8" t="s">
@@ -6864,16 +6855,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="40"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -8063,25 +8054,25 @@
   <sheetData>
     <row r="1" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="15" t="s">
         <v>7</v>
       </c>
       <c r="E2" s="4">
         <v>6500</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="15" t="s">
         <v>35</v>
       </c>
       <c r="K2" s="4" t="s">
@@ -8089,22 +8080,22 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="B3" s="2">
         <f>MATCH(B2,A6:A13,0)</f>
         <v>7</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E3" s="4"/>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="H3" s="4"/>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="15" t="s">
         <v>36</v>
       </c>
       <c r="K3" s="4"/>
@@ -8131,13 +8122,13 @@
       <c r="C6" s="6">
         <v>6000</v>
       </c>
-      <c r="F6" s="20" t="s">
+      <c r="F6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="22"/>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -8149,11 +8140,11 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="F7" s="23"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="25"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -8165,11 +8156,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="F8" s="26"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="27"/>
-      <c r="I8" s="27"/>
-      <c r="J8" s="28"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -9253,13 +9244,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="42" t="s">
+      <c r="C2" s="40" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -9268,13 +9259,13 @@
       <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
+      <c r="J2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -9290,11 +9281,11 @@
       <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="I3" s="21"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -9310,11 +9301,11 @@
       <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="23"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="23"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -9330,11 +9321,11 @@
       <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="28"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="26"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -9353,13 +9344,13 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="40" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -10452,7 +10443,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -11509,13 +11500,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="42" t="s">
         <v>41</v>
       </c>
     </row>
@@ -11526,7 +11517,7 @@
       <c r="B2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="45"/>
+      <c r="C2" s="43"/>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -11535,7 +11526,7 @@
       <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="45"/>
+      <c r="C3" s="43"/>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -11544,7 +11535,7 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="45"/>
+      <c r="C4" s="43"/>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -11553,7 +11544,7 @@
       <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="45"/>
+      <c r="C5" s="43"/>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -11562,7 +11553,7 @@
       <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="45"/>
+      <c r="C6" s="43"/>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12568,8 +12559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12578,13 +12569,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="44" t="s">
+      <c r="A1" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>88</v>
       </c>
     </row>

--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B99C9A3-E97C-4773-B3BE-F783D5BACFF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8E3DA5-3AD6-44B9-B3FC-E090D532B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -873,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:M3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D8:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3143,7 +3143,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/Lookup_Functions/Lookup_Functions _InClass.xlsx
+++ b/Lookup_Functions/Lookup_Functions _InClass.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\MexEE402_ExcelExcercises\Lookup_Functions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB8E3DA5-3AD6-44B9-B3FC-E090D532B792}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EECD6D5-39CD-4198-AC35-FFFA725CA136}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28635" yWindow="-165" windowWidth="15690" windowHeight="11250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="LOOKUP" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
     <sheet name="INDIRECT" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">LOOKUP!$A$5:$C$5</definedName>
     <definedName name="Commission">#REF!</definedName>
     <definedName name="Commission_tbl">#REF!</definedName>
   </definedNames>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="93">
   <si>
     <t>Emp ID</t>
   </si>
@@ -330,6 +331,12 @@
   <si>
     <t>INDIRECT(ADDRESS(5,2))</t>
   </si>
+  <si>
+    <t>range should be ascending</t>
+  </si>
+  <si>
+    <t>col_index_num should not be 1.</t>
+  </si>
 </sst>
 </file>
 
@@ -339,7 +346,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="#,##0;[Red]#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,6 +377,13 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="13">
@@ -592,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,6 +631,15 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="2" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -647,15 +670,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -873,13 +891,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D8:D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="26" width="9.9140625" customWidth="1"/>
+    <col min="1" max="5" width="9.9140625" customWidth="1"/>
+    <col min="6" max="6" width="23.25" customWidth="1"/>
+    <col min="7" max="26" width="9.9140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -895,14 +918,16 @@
         <v>2</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>91</v>
+      </c>
       <c r="G2" s="15" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="15" t="s">
@@ -915,7 +940,7 @@
         <v>4</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -930,21 +955,33 @@
       <c r="D3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4">
+        <f>LOOKUP(E2,B6:B13,C6:C13)</f>
+        <v>8000</v>
+      </c>
       <c r="F3" s="3"/>
       <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2">
+        <f>LOOKUP(H2,A6:A13,C6:C13)</f>
+        <v>7000</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="2">
+        <f>LOOKUP(K2,A6:A13,C6:C13)</f>
+        <v>6000</v>
+      </c>
       <c r="M3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="2"/>
+      <c r="N3" s="2" t="str">
+        <f>LOOKUP(N2,A6:A13,B6:B13)</f>
+        <v>Adam</v>
+      </c>
     </row>
     <row r="4" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
@@ -971,101 +1008,101 @@
     </row>
     <row r="7" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C7" s="6">
-        <v>7000</v>
-      </c>
-      <c r="E7" s="18" t="s">
+        <v>10000</v>
+      </c>
+      <c r="E7" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="19"/>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="20"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="25"/>
     </row>
     <row r="8" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C8" s="6">
-        <v>8000</v>
-      </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="23"/>
+        <v>11000</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C9" s="6">
-        <v>9000</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="23"/>
+        <v>7000</v>
+      </c>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
     </row>
     <row r="10" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="C10" s="6">
-        <v>10000</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
+        <v>17000</v>
+      </c>
+      <c r="E10" s="29"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="31"/>
     </row>
     <row r="11" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C11" s="6">
-        <v>11000</v>
+        <v>12000</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C12" s="6">
-        <v>12000</v>
+        <v>9000</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="C13" s="6">
-        <v>17000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2069,7 +2106,7 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2078,13 +2115,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="22" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2107,7 +2144,10 @@
       <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6">
+        <f>COLUMNS(E2:G4)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="4" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -2116,7 +2156,10 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6">
+        <f>COLUMNS(A9:G10)</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -2125,7 +2168,10 @@
       <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6">
+        <f>COLUMNS(F4)</f>
+        <v>1</v>
+      </c>
       <c r="E5" s="8" t="s">
         <v>89</v>
       </c>
@@ -2137,7 +2183,10 @@
       <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6">
+        <f>COLUMNS(D5:G9)</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="7" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3143,8 +3192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:F1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3155,13 +3204,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -3173,7 +3222,7 @@
         <v>80</v>
       </c>
       <c r="C2" s="6" t="str">
-        <f t="array" aca="1" ref="C2" ca="1">INDIRECT(ADDRESS(3,1))</f>
+        <f ca="1">INDIRECT(ADDRESS(3,1))</f>
         <v>D002</v>
       </c>
     </row>
@@ -3184,7 +3233,10 @@
       <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="str">
+        <f ca="1">INDIRECT(ADDRESS(2,2))</f>
+        <v>Contact_channnel</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -3193,7 +3245,10 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="str">
+        <f ca="1">INDIRECT(ADDRESS(4,1))</f>
+        <v>D003</v>
+      </c>
     </row>
     <row r="5" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -3202,7 +3257,10 @@
       <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="str">
+        <f ca="1">INDIRECT(ADDRESS(5,2))</f>
+        <v>Telesales outbound</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -3211,7 +3269,10 @@
       <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="str">
+        <f ca="1">INDIRECT(ADDRESS(6,1))</f>
+        <v>D005</v>
+      </c>
       <c r="F6" s="8" t="s">
         <v>90</v>
       </c>
@@ -4221,14 +4282,18 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView zoomScale="123" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="10" width="9.75" customWidth="1"/>
     <col min="11" max="11" width="23" customWidth="1"/>
-    <col min="12" max="26" width="9.75" customWidth="1"/>
+    <col min="12" max="12" width="22.75" customWidth="1"/>
+    <col min="13" max="26" width="9.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4264,8 +4329,8 @@
       <c r="M2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>11</v>
+      <c r="N2" s="46" t="s">
+        <v>25</v>
       </c>
       <c r="O2" s="3"/>
       <c r="P2" s="3"/>
@@ -4280,7 +4345,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="15" t="s">
         <v>8</v>
       </c>
@@ -4300,17 +4365,28 @@
       <c r="G3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <f>VLOOKUP(H2,A6:C13,3,FALSE)</f>
+        <v>17000</v>
+      </c>
       <c r="I3" s="3"/>
       <c r="J3" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="K3" s="4"/>
-      <c r="L3" s="3"/>
+      <c r="K3" s="4" t="e">
+        <f>VLOOKUP(K2,A6:B13,1,FALSE)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="L3" s="45" t="s">
+        <v>92</v>
+      </c>
       <c r="M3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="4"/>
+      <c r="N3" s="4">
+        <f>VLOOKUP(N2,B6:C13,2,FALSE)</f>
+        <v>17000</v>
+      </c>
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
       <c r="Q3" s="3"/>
@@ -4365,13 +4441,13 @@
       <c r="H6" s="6">
         <v>4</v>
       </c>
-      <c r="J6" s="27" t="s">
+      <c r="J6" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="29"/>
+      <c r="K6" s="33"/>
+      <c r="L6" s="33"/>
+      <c r="M6" s="33"/>
+      <c r="N6" s="34"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -4393,11 +4469,11 @@
       <c r="H7" s="6">
         <v>6</v>
       </c>
-      <c r="J7" s="30"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="31"/>
-      <c r="M7" s="31"/>
-      <c r="N7" s="32"/>
+      <c r="J7" s="35"/>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36"/>
+      <c r="M7" s="36"/>
+      <c r="N7" s="37"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -4419,11 +4495,11 @@
       <c r="H8" s="6">
         <v>8</v>
       </c>
-      <c r="J8" s="30"/>
-      <c r="K8" s="31"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="36"/>
+      <c r="N8" s="37"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -4445,11 +4521,11 @@
       <c r="H9" s="6">
         <v>10</v>
       </c>
-      <c r="J9" s="30"/>
-      <c r="K9" s="31"/>
-      <c r="L9" s="31"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
+      <c r="J9" s="35"/>
+      <c r="K9" s="36"/>
+      <c r="L9" s="36"/>
+      <c r="M9" s="36"/>
+      <c r="N9" s="37"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
@@ -4471,11 +4547,11 @@
       <c r="H10" s="6">
         <v>12</v>
       </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="32"/>
+      <c r="J10" s="35"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36"/>
+      <c r="M10" s="36"/>
+      <c r="N10" s="37"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
@@ -4494,11 +4570,11 @@
       <c r="H11" s="6">
         <v>14</v>
       </c>
-      <c r="J11" s="33"/>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="35"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="39"/>
+      <c r="N11" s="40"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
@@ -5538,7 +5614,10 @@
   <dimension ref="A1:P1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <pane xSplit="7" ySplit="6" topLeftCell="H7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -5547,24 +5626,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-      <c r="K1" s="37"/>
-      <c r="L1" s="37"/>
-      <c r="M1" s="37"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="38"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
+      <c r="I1" s="42"/>
+      <c r="J1" s="42"/>
+      <c r="K1" s="42"/>
+      <c r="L1" s="42"/>
+      <c r="M1" s="42"/>
+      <c r="N1" s="42"/>
+      <c r="O1" s="42"/>
+      <c r="P1" s="43"/>
     </row>
     <row r="2" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
@@ -5579,8 +5658,12 @@
       <c r="E2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="15"/>
-      <c r="H2" s="6"/>
+      <c r="G2" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>14</v>
+      </c>
       <c r="J2" s="17"/>
       <c r="K2" s="6"/>
       <c r="M2" s="17"/>
@@ -5601,32 +5684,37 @@
         <f>HLOOKUP(E2,B9:G10,2,FALSE)</f>
         <v>6000</v>
       </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="6"/>
+      <c r="G3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="6">
+        <f>HLOOKUP(H2,B9:G13,5,FALSE)</f>
+        <v>8</v>
+      </c>
       <c r="J3" s="17"/>
       <c r="K3" s="6"/>
       <c r="M3" s="17"/>
       <c r="N3" s="6"/>
     </row>
     <row r="4" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="37"/>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="37"/>
-      <c r="N4" s="37"/>
-      <c r="O4" s="37"/>
-      <c r="P4" s="38"/>
+      <c r="B4" s="42"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="43"/>
     </row>
     <row r="5" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="15" t="s">
@@ -5671,15 +5759,24 @@
       <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="4">
+        <f>HLOOKUP(E5,B12:G13,2,TRUE)</f>
+        <v>4</v>
+      </c>
       <c r="G6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H6" s="4"/>
+      <c r="H6" s="4">
+        <f>HLOOKUP(H5,B12:G13,2,TRUE)</f>
+        <v>6</v>
+      </c>
       <c r="J6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="K6" s="4">
+        <f>HLOOKUP(K5,B12:G13,2,TRUE)</f>
+        <v>10</v>
+      </c>
       <c r="M6" s="15" t="s">
         <v>22</v>
       </c>
@@ -5734,13 +5831,13 @@
       <c r="G9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="18" t="s">
+      <c r="J9" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
     </row>
     <row r="10" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11" t="s">
@@ -5764,18 +5861,18 @@
       <c r="G10" s="6">
         <v>17000</v>
       </c>
-      <c r="J10" s="21"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="27"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J11" s="21"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="27"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11" t="s">
@@ -5799,11 +5896,11 @@
       <c r="G12" s="6">
         <v>15500</v>
       </c>
-      <c r="J12" s="21"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11" t="s">
@@ -5827,11 +5924,11 @@
       <c r="G13" s="6">
         <v>16</v>
       </c>
-      <c r="J13" s="24"/>
-      <c r="K13" s="25"/>
-      <c r="L13" s="25"/>
-      <c r="M13" s="25"/>
-      <c r="N13" s="26"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="31"/>
     </row>
     <row r="14" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="K14" s="8" t="s">
@@ -6855,16 +6952,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="38"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="43"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
@@ -8042,7 +8139,7 @@
   <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8090,15 +8187,24 @@
       <c r="D3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="4" t="e">
+        <f>MATCH(E2,C6:C13,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="G3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="4"/>
+      <c r="H3" s="4">
+        <f>MATCH(H2,B6:B13,0)</f>
+        <v>2</v>
+      </c>
       <c r="J3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="K3" s="4">
+        <f>MATCH(K2,A6:A13,0)</f>
+        <v>5</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="5" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
@@ -8122,13 +8228,13 @@
       <c r="C6" s="6">
         <v>6000</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
@@ -8140,11 +8246,11 @@
       <c r="C7" s="6">
         <v>7000</v>
       </c>
-      <c r="F7" s="21"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="23"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
@@ -8156,11 +8262,11 @@
       <c r="C8" s="6">
         <v>8000</v>
       </c>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="25"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
@@ -9229,7 +9335,7 @@
   <dimension ref="A1:M1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9244,13 +9350,13 @@
   <sheetData>
     <row r="1" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="40" t="s">
+      <c r="A2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="18" t="s">
         <v>41</v>
       </c>
       <c r="E2" s="4" t="s">
@@ -9259,13 +9365,13 @@
       <c r="F2" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="20"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -9274,18 +9380,21 @@
       <c r="B3" s="6">
         <v>4</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="6" t="str">
+        <f>CHOOSE((B3&gt;=0)+(B3&gt;=2)+(B3&gt;=6)+(B3&gt;=9),"Poor","Average","Good","Excellent")</f>
+        <v>Average</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>46</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -9294,18 +9403,21 @@
       <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="str">
+        <f>CHOOSE((B4&gt;=0)+(B4&gt;=2)+(B4&gt;=6)+(B4&gt;=9),"Poor","Average","Good","Excellent")</f>
+        <v>Poor</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="21"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="23"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="27"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
+      <c r="M4" s="28"/>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -9314,18 +9426,21 @@
       <c r="B5" s="6">
         <v>7</v>
       </c>
-      <c r="C5" s="6"/>
+      <c r="C5" s="6" t="str">
+        <f>CHOOSE((B5&gt;=0)+(B5&gt;=2)+(B5&gt;=6)+(B5&gt;=9),"Poor","Average","Good","Excellent")</f>
+        <v>Good</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>52</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="I5" s="24"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="26"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
+      <c r="M5" s="31"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -9334,7 +9449,10 @@
       <c r="B6" s="6">
         <v>9</v>
       </c>
-      <c r="C6" s="6"/>
+      <c r="C6" s="6" t="str">
+        <f>CHOOSE((B6&gt;=0)+(B6&gt;=2)+(B6&gt;=6)+(B6&gt;=9),"Poor","Average","Good","Excellent")</f>
+        <v>Excellent</v>
+      </c>
     </row>
     <row r="7" spans="1:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="J7" s="8" t="s">
@@ -9344,13 +9462,13 @@
       <c r="L7" s="8"/>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="40" t="s">
+      <c r="A8" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E8" s="11" t="s">
@@ -9381,7 +9499,10 @@
       <c r="B10" s="6">
         <v>1</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="str">
+        <f>CHOOSE(B10,"Red","Green","Blue")</f>
+        <v>Red</v>
+      </c>
       <c r="E10" s="6">
         <v>2</v>
       </c>
@@ -9396,7 +9517,10 @@
       <c r="B11" s="6">
         <v>3</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="6" t="str">
+        <f>CHOOSE(B11,"Red","Green","Blue")</f>
+        <v>Blue</v>
+      </c>
       <c r="E11" s="6">
         <v>3</v>
       </c>
@@ -9411,7 +9535,10 @@
       <c r="B12" s="6">
         <v>3</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="6" t="str">
+        <f t="shared" ref="C12:C14" si="0">CHOOSE(B12,"Red","Green","Blue")</f>
+        <v>Blue</v>
+      </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
@@ -9420,7 +9547,10 @@
       <c r="B13" s="6">
         <v>1</v>
       </c>
-      <c r="C13" s="6"/>
+      <c r="C13" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Red</v>
+      </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
@@ -9429,7 +9559,10 @@
       <c r="B14" s="6">
         <v>2</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>Green</v>
+      </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10431,7 +10564,7 @@
   <dimension ref="A1:F1000"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -10443,7 +10576,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="19" t="s">
         <v>68</v>
       </c>
       <c r="C1" s="14" t="s">
@@ -10454,7 +10587,10 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6"/>
+      <c r="A2" s="6">
+        <f>AREAS((C2:C4))</f>
+        <v>1</v>
+      </c>
       <c r="C2" s="14" t="s">
         <v>70</v>
       </c>
@@ -10463,7 +10599,10 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6"/>
+      <c r="A3" s="6">
+        <f>AREAS((C2:C4))</f>
+        <v>1</v>
+      </c>
       <c r="C3" s="14" t="s">
         <v>72</v>
       </c>
@@ -10472,7 +10611,10 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6"/>
+      <c r="A4" s="6">
+        <f>AREAS((D3:D5))</f>
+        <v>1</v>
+      </c>
       <c r="C4" s="14" t="s">
         <v>74</v>
       </c>
@@ -11491,7 +11633,7 @@
   <dimension ref="A1:C1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11500,13 +11642,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="20" t="s">
         <v>41</v>
       </c>
     </row>
@@ -11517,7 +11659,10 @@
       <c r="B2" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="C2" s="43"/>
+      <c r="C2" s="21" t="str">
+        <f>ADDRESS(2,2)</f>
+        <v>$B$2</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -11526,7 +11671,10 @@
       <c r="B3" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="43"/>
+      <c r="C3" s="21" t="str">
+        <f>ADDRESS(1,3)</f>
+        <v>$C$1</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -11535,7 +11683,10 @@
       <c r="B4" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C4" s="43"/>
+      <c r="C4" s="21" t="str">
+        <f>ADDRESS(4,6)</f>
+        <v>$F$4</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -11544,7 +11695,7 @@
       <c r="B5" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C5" s="43"/>
+      <c r="C5" s="21"/>
     </row>
     <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
@@ -11553,7 +11704,7 @@
       <c r="B6" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="C6" s="43"/>
+      <c r="C6" s="21"/>
     </row>
     <row r="7" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="8" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12560,7 +12711,7 @@
   <dimension ref="A1:D1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12569,13 +12720,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="20" t="s">
         <v>88</v>
       </c>
     </row>
@@ -12596,7 +12747,10 @@
       <c r="A3" s="6">
         <v>30</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6">
+        <f>A3-COLUMN(G3)</f>
+        <v>23</v>
+      </c>
       <c r="D3" s="6">
         <f>COLUMN(B2)</f>
         <v>2</v>
@@ -12606,14 +12760,23 @@
       <c r="A4" s="6">
         <v>40</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="B4" s="6">
+        <f t="shared" ref="B3:B5" si="0">A4-COLUMN()</f>
+        <v>38</v>
+      </c>
+      <c r="D4" s="6">
+        <f>COLUMN(C1)</f>
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="6">
         <v>60</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6">
+        <f t="shared" si="0"/>
+        <v>58</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -13628,15 +13791,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A740584D75509F4F816ECA19663AA050" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2c4fec7a5ecf2686ff0e7fa8e74d8f92">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9454a14-a1be-4dae-96dd-930f17aa1325" xmlns:ns3="1670c0fe-6d31-4556-b86f-9e87b6880aec" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6f7e007abd3148683626701b1277c03d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9454a14-a1be-4dae-96dd-930f17aa1325"/>
@@ -13879,6 +14033,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0578504-35B2-407F-ABE4-20D094B27F55}">
   <ds:schemaRefs>
@@ -13891,14 +14054,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B087AFD-AD9A-4519-A6E7-415BDCCD1406}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{05FC0A17-52AA-4B42-ABB8-3C6BCD322DA3}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13915,4 +14070,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B087AFD-AD9A-4519-A6E7-415BDCCD1406}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>